--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32859-d79224-Reviews-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>162</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Super-8-By-Wyndham-PasadenaLA-Area.h40626.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1456 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r587492286-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>32859</t>
+  </si>
+  <si>
+    <t>79224</t>
+  </si>
+  <si>
+    <t>587492286</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i was very pleased with this hotel, service was great check in and out great the room was outstanding, the grounds were clean and the pool was also outstanding, the service was great and very nice the location was easy to fine the restaurants just down the street were outstanding as well, all in all had  very nice stay will come back again if i every get out that way again. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r572461479-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>572461479</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r571581036-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>571581036</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Second time staying here and I love it rooms are spacious...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second time staying here and I love it rooms are spacious and staff is so helpful breakfast was ok but hey for the price of this hotel it pases . </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r563734003-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>563734003</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Affordable, Quiet and Clean</t>
+  </si>
+  <si>
+    <t>I was working a trade show at the Pasadena convention center, I was happy to find that the rooms where indeed just like the photos, the breakfast room was clean and well stocked, the staff was friendly and helpful, the bed comfortable and the property was quiet and safe. everything I need.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r562002448-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>562002448</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Bed spreads</t>
+  </si>
+  <si>
+    <t>Again after decades of other places and those horrible bed spreads that should never be manufactured, super 8 has the best bed spreads. Room was fine, refrigerator dial black on black, tough to find. Tv reception was horrible, three days of it cutting out about 15% of every hour. They did try fixing but just never happened.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r560664020-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>560664020</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Super 8 is Super!</t>
+  </si>
+  <si>
+    <t>Super 8 Pasadena is a very nice and accommodating hotel located close to downtown, but in a quiet area. I would recommend it and will be staying here next time I'm in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554859102-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>554859102</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554408796-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>554408796</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>The receptionist was very nice and helpful before we checked in but it went downhill very quickly after that.Really awful hotel, looks nothing like the picture.   Its dated, dirty, the shower didn't work and its the worst night sleep I have had for a long time. MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>The receptionist was very nice and helpful before we checked in but it went downhill very quickly after that.Really awful hotel, looks nothing like the picture.   Its dated, dirty, the shower didn't work and its the worst night sleep I have had for a long time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554244280-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>554244280</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r551156705-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551156705</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Rose bowl and new year's eve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was friendly. Room was big and clean. Beds were comfortable. Management gave each guest a check in goodie bag. Excellent location near parade route and amenities. Microwave and refrigerator in the room. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r551000424-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>551000424</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Ok place, good value. Blinds let the light in. Tv service...</t>
+  </si>
+  <si>
+    <t>Ok place, good value. Blinds let the light in. Tv service didn’t work and they didn’t offer discount MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Ok place, good value. Blinds let the light in. Tv service didn’t work and they didn’t offer discount More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r549781288-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>549781288</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t>It was okay. I thought my room had hardwood floors like the picture, but it didn't. It was remodeled. Also they were having cable/internet issues the night I stayed  MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>It was okay. I thought my room had hardwood floors like the picture, but it didn't. It was remodeled. Also they were having cable/internet issues the night I stayed  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r542661595-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>542661595</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r542657274-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>542657274</t>
+  </si>
+  <si>
+    <t>My trip to pasadena to visit my mom November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I basically just spent the night there but the staff is always great the breakfast is always nicely displayed not very interesting but but breakfast </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r532911739-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>532911739</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Stayed September 10-14, 2017...I thought this was a nice hotel.  Loved the hardwood floors, no nasty carpeting.....  Breakfast could use a few more items, but was very satisfying....many restaurants within a 2 mile radius!!  Great stay!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r529963494-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>529963494</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r528139186-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>528139186</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>We arrived early from our trip down to Pasadena. We were greated &amp; given early check-on, as my four 18 year old road trip partners were anxious to get to Universal Studios. Room was great, as always. The only issue was with my Wyndham Rewards. Once at the hotel, they were unable to access my rewards. When I called the customer service #, I got voice prompt to call back during busyness hours on Monday. So the $65 room now cost me over $150 which cut into my kids sending money for the evening. I still have yet to hear back regarding Wyndhams response for a refund. The only reason I book this hotel is for the great customer service and my rewards points. I hope this gets resolved before I need to book another trip down. MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived early from our trip down to Pasadena. We were greated &amp; given early check-on, as my four 18 year old road trip partners were anxious to get to Universal Studios. Room was great, as always. The only issue was with my Wyndham Rewards. Once at the hotel, they were unable to access my rewards. When I called the customer service #, I got voice prompt to call back during busyness hours on Monday. So the $65 room now cost me over $150 which cut into my kids sending money for the evening. I still have yet to hear back regarding Wyndhams response for a refund. The only reason I book this hotel is for the great customer service and my rewards points. I hope this gets resolved before I need to book another trip down. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r524252842-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>524252842</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Horrific</t>
+  </si>
+  <si>
+    <t>Had to deal with drug deals and crack heads .management knew about this and allowed it to happen MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Had to deal with drug deals and crack heads .management knew about this and allowed it to happen More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r521154502-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>521154502</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Pricey</t>
+  </si>
+  <si>
+    <t>While pets were allowed, there was NO designated pet area for waste. I had to walk my dog in the residential neighborhood, this was quite inconvenient. The pet fee was $40.00 per night, there should have been a pet area within the Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>While pets were allowed, there was NO designated pet area for waste. I had to walk my dog in the residential neighborhood, this was quite inconvenient. The pet fee was $40.00 per night, there should have been a pet area within the Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r520249798-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>520249798</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Disaster at Super 8</t>
+  </si>
+  <si>
+    <t>I was in Pasadena for an extended period and chose Super 8 to stay for that period.  The motel was terrible, expecially the staff who were rude and unresponsive.  I have never stayed at a motel that has treated me as poorly as this one.  I would recommend that you never choose this motel as there are many other choices on Colorado Boulevard nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Pasadena for an extended period and chose Super 8 to stay for that period.  The motel was terrible, expecially the staff who were rude and unresponsive.  I have never stayed at a motel that has treated me as poorly as this one.  I would recommend that you never choose this motel as there are many other choices on Colorado Boulevard nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r520008877-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>520008877</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Great, quite and enjoyed our stay.  The staff is so caring.</t>
+  </si>
+  <si>
+    <t>This is our second years staying at the same hotel..  the receptionist was very friendly and caring.  This is our yearly stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r508871715-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>508871715</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Older property, but clean, comfortable and convienient</t>
+  </si>
+  <si>
+    <t>This is an older property but conveniently located just off I-210 on the East side of Pasadena. It is very close to Pasadena City College and on the Parade route. Easy on site parking and the rooms are well maintained. The staff was super helpful.  We were waiting to take possession of a new house and they worked with us to remain flexible about how many days we needed to stay.  The hotel is popular, so keeping a room open was above and beyond the normal behavior for a hotel.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r508123736-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>508123736</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r507751340-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>507751340</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r505505714-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>505505714</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Decent place for the price...</t>
+  </si>
+  <si>
+    <t>This property was nice and clean. Breakfast was ok but not what we were really looking for. We were gone most of the day so we were there mainly to sleep. The wifi was horrible! Our devices are fairly new and work/function other businesses where wifi is available. Unfortunately, this was not the case here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r503968219-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>503968219</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r502224986-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>502224986</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Tucked away and nice and quiet</t>
+  </si>
+  <si>
+    <t>Super nice front desk staff Gabriella, Accomadated all of our needs. I really liked that there was tile and no carpet, as motel carpet can give you the willies, No ugly heavy drapes either. Plantation shutters. Nice pool. Average breakfast. Very Quiet. Close to everything. I little hidden gem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r500306021-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>500306021</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel for everything you need for a weeks vacation. The rooms were very clean and the service was good. Very good location to find anything for your needs while away from home. Also nice location to travel to all the attractions in the area. I will  definitely stay here again when back in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r497221337-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>497221337</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Service and quality is spotty</t>
+  </si>
+  <si>
+    <t>On several occasions due to renovations to my home and other occasions when I had to find short term accommodations, I have stayed at Super 8 in Pasadena.  While the price is reasonable, I have experienced various issues with noise, cleanliness and service.   I have had occasions when I became very frustrated with the attitude and unhelpfulness of the front desk clerk.  Once when I had specifically requested a room on the top floor away from the staircase (which from past experience I found was the only way I could get away from constant noise and get some sleep) as I usually do, the clerk was unapologetic when I checked in to find myself given a parking lot level room next to the stairs even though  the hotel had confirmed the details of my reservation and  had acknowleged my request.  The clerk shrugged and said "You didn't speak with me" and apparently the hotel was fully booked so I could not change my room. 
+I personally saw what I believe were prostitutes going in and out of one of the rooms nearby all night doing their business. One night I overheard a very loud argument between one of these women and what I assume was her pimp right outside my room window which dragged on for what seemed to be at least 10 minutes. Needless to say it wasn't very entertaining so late at night. 
+Match this with the really...On several occasions due to renovations to my home and other occasions when I had to find short term accommodations, I have stayed at Super 8 in Pasadena.  While the price is reasonable, I have experienced various issues with noise, cleanliness and service.   I have had occasions when I became very frustrated with the attitude and unhelpfulness of the front desk clerk.  Once when I had specifically requested a room on the top floor away from the staircase (which from past experience I found was the only way I could get away from constant noise and get some sleep) as I usually do, the clerk was unapologetic when I checked in to find myself given a parking lot level room next to the stairs even though  the hotel had confirmed the details of my reservation and  had acknowleged my request.  The clerk shrugged and said "You didn't speak with me" and apparently the hotel was fully booked so I could not change my room. I personally saw what I believe were prostitutes going in and out of one of the rooms nearby all night doing their business. One night I overheard a very loud argument between one of these women and what I assume was her pimp right outside my room window which dragged on for what seemed to be at least 10 minutes. Needless to say it wasn't very entertaining so late at night. Match this with the really bad and weak wifi, the unsecured parking lot with what seems no security at all and the dingy rooms with shoddy appointments, I found myself so frustrated that I checked out the next morning and found a room elsewhere. While I understand that this is a budget motel and the price is low, I do know that there are better spots to crash in the area for the same amount of money.  In this regard,  I won't ever  book a room at Super 8 - honestly, I would rather sleep in the backseat of my car than ever give another nickel to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>On several occasions due to renovations to my home and other occasions when I had to find short term accommodations, I have stayed at Super 8 in Pasadena.  While the price is reasonable, I have experienced various issues with noise, cleanliness and service.   I have had occasions when I became very frustrated with the attitude and unhelpfulness of the front desk clerk.  Once when I had specifically requested a room on the top floor away from the staircase (which from past experience I found was the only way I could get away from constant noise and get some sleep) as I usually do, the clerk was unapologetic when I checked in to find myself given a parking lot level room next to the stairs even though  the hotel had confirmed the details of my reservation and  had acknowleged my request.  The clerk shrugged and said "You didn't speak with me" and apparently the hotel was fully booked so I could not change my room. 
+I personally saw what I believe were prostitutes going in and out of one of the rooms nearby all night doing their business. One night I overheard a very loud argument between one of these women and what I assume was her pimp right outside my room window which dragged on for what seemed to be at least 10 minutes. Needless to say it wasn't very entertaining so late at night. 
+Match this with the really...On several occasions due to renovations to my home and other occasions when I had to find short term accommodations, I have stayed at Super 8 in Pasadena.  While the price is reasonable, I have experienced various issues with noise, cleanliness and service.   I have had occasions when I became very frustrated with the attitude and unhelpfulness of the front desk clerk.  Once when I had specifically requested a room on the top floor away from the staircase (which from past experience I found was the only way I could get away from constant noise and get some sleep) as I usually do, the clerk was unapologetic when I checked in to find myself given a parking lot level room next to the stairs even though  the hotel had confirmed the details of my reservation and  had acknowleged my request.  The clerk shrugged and said "You didn't speak with me" and apparently the hotel was fully booked so I could not change my room. I personally saw what I believe were prostitutes going in and out of one of the rooms nearby all night doing their business. One night I overheard a very loud argument between one of these women and what I assume was her pimp right outside my room window which dragged on for what seemed to be at least 10 minutes. Needless to say it wasn't very entertaining so late at night. Match this with the really bad and weak wifi, the unsecured parking lot with what seems no security at all and the dingy rooms with shoddy appointments, I found myself so frustrated that I checked out the next morning and found a room elsewhere. While I understand that this is a budget motel and the price is low, I do know that there are better spots to crash in the area for the same amount of money.  In this regard,  I won't ever  book a room at Super 8 - honestly, I would rather sleep in the backseat of my car than ever give another nickel to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r496872651-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>496872651</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r493972378-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>493972378</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Remodeled and clean</t>
+  </si>
+  <si>
+    <t>This little "dog friendly" motel is great for 1 night while passing through to someplace else unless you are in Pasadena for other activities.  It is remodeled and the rooms are fairly spacious.  There is a nice pool and tables in the pool area.  The air conditioning worked well and it was quiet.  The beds are newer and comfortable.  The price was reasonable for 2 queen beds but the dog fee was kind of high, $40.00 which is more than most that we have found and she is only 5 pounds.  It is right in the middle of an area where there are lots of walkable restaurants and if you drive, there are more options.  One huge drawback, the office staff is lackadaisical except for one young lady who was marvelous.  We had interaction with 3 young men and one could not get off his phone playing games.  Lily was great, the other 3 men, not so much.  The breakfast is grab and go (cereal and make it yourself waffles).  No amenities here, but good overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This little "dog friendly" motel is great for 1 night while passing through to someplace else unless you are in Pasadena for other activities.  It is remodeled and the rooms are fairly spacious.  There is a nice pool and tables in the pool area.  The air conditioning worked well and it was quiet.  The beds are newer and comfortable.  The price was reasonable for 2 queen beds but the dog fee was kind of high, $40.00 which is more than most that we have found and she is only 5 pounds.  It is right in the middle of an area where there are lots of walkable restaurants and if you drive, there are more options.  One huge drawback, the office staff is lackadaisical except for one young lady who was marvelous.  We had interaction with 3 young men and one could not get off his phone playing games.  Lily was great, the other 3 men, not so much.  The breakfast is grab and go (cereal and make it yourself waffles).  No amenities here, but good overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r493968659-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>493968659</t>
+  </si>
+  <si>
+    <t>decent quality</t>
+  </si>
+  <si>
+    <t>wow what a wonderful place to stay in, felt very safe and comforted, would love to stay in a hotel like this again, thanks again super 8 for making my stay peaceful and bugless, can't wait to keep on keeping on!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r491858067-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>491858067</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>The room was to duty the smell was very bad dirt all over...</t>
+  </si>
+  <si>
+    <t>The room was to duty the smell was very bad dirt all over the carpet it's was a nightmare for my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The room was to duty the smell was very bad dirt all over the carpet it's was a nightmare for my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r489645040-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>489645040</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>BEST SUPER 8 SO FAR/WITH A COUPLE NEGATIVES</t>
+  </si>
+  <si>
+    <t>Always use Super 8 with Wyndham for several years and this would of gotten 5 stars except.Very good breakfast with waffle maker.coffee excellent from machine..BUT..it's located in the lobby and is much too Cramped.with a few tables which is not based on occupancy.parking stalls large.room looked recently renovated n very clean.BUT.SOAP.(1/8x3x4).Bareley enough for 1 shower.Pasedena is a very clean town.very few homeless.Motel is in good location,highway access,restaurants and old town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r488907816-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>488907816</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Oppps</t>
+  </si>
+  <si>
+    <t>The accommodations were fine. However, they deactivated my key on the second day of my stay and they change the password on the internet on the last day of my stay....it made me feel a little unwelcomeMoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>The accommodations were fine. However, they deactivated my key on the second day of my stay and they change the password on the internet on the last day of my stay....it made me feel a little unwelcomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r487986179-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>487986179</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I used this motel in Pasadena for a concert at the Rose Bowl.  The front desk was very helpful with parking questions and we had a great time.  The room was very comfortable and clean.  Breakfast was not bad either.  Thank you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r486972503-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>486972503</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r486966061-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>486966061</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r485686898-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>485686898</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>worst stay ever!</t>
+  </si>
+  <si>
+    <t>The bed was rock hard- didn't sleep all night! ..and only after complaining about the bed did they tell me they are replacing ALL the beds in the hotel for that reason. appliances were old and dryer didn't work.  The walls are paper thin and the room next to us was in and out of the room talking all night until 5am.  We didn't sleep at all.  When I informed the front desk the following day that we would like to check out one day earlier than expected because we could not possibly sleep there another night, they agreed to refund the next night, but still to this day have not given me my money back. It was supposed to be a special mother's day and turned out to be a nightmare.  worst customer service experience and stay ..ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>The bed was rock hard- didn't sleep all night! ..and only after complaining about the bed did they tell me they are replacing ALL the beds in the hotel for that reason. appliances were old and dryer didn't work.  The walls are paper thin and the room next to us was in and out of the room talking all night until 5am.  We didn't sleep at all.  When I informed the front desk the following day that we would like to check out one day earlier than expected because we could not possibly sleep there another night, they agreed to refund the next night, but still to this day have not given me my money back. It was supposed to be a special mother's day and turned out to be a nightmare.  worst customer service experience and stay ..ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r483674399-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>483674399</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Impressed!!!</t>
+  </si>
+  <si>
+    <t>I was in town for business trying to keep my expenses low so I really wasn't expecting to much from the motel but was very impressed with the staff and property. I will stay there again!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r483458251-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>483458251</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was nice, decent size and clean. The bed was uncomfortable and hard. Spoke to the woman at the front desk and she offered to switch me rooms which was nice. Staff was very friendly. Room was located on the 1st floor so was able to hear all the commotion outside so will switch floors next time I stay. Thank you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r479916575-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>479916575</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r476852998-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>476852998</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, great location... just a few blocks to great restaurants and antique shops, a few miles to museums and old town Pasadena. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r474816298-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>474816298</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r474745118-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>474745118</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472910064-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>472910064</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472667711-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>472667711</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>The manager, Raj Bhatia, charged me $100 in fraudulent charges that I had to report to American express. He was so unpleasant because i asked if the broken air conditioner could be fixed. He said i was lying and when I disputed that and he got so angry he started yelling. He was so worked up he started coughing . Once he stopped he was shaking. I was holding my 18 month old and was afraid for her safety. He shouted  an obscenity at me With a baby in my arms!I have complained to the company and will NEVER stay at a Super 8 againMoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded April 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2017</t>
+  </si>
+  <si>
+    <t>The manager, Raj Bhatia, charged me $100 in fraudulent charges that I had to report to American express. He was so unpleasant because i asked if the broken air conditioner could be fixed. He said i was lying and when I disputed that and he got so angry he started yelling. He was so worked up he started coughing . Once he stopped he was shaking. I was holding my 18 month old and was afraid for her safety. He shouted  an obscenity at me With a baby in my arms!I have complained to the company and will NEVER stay at a Super 8 againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472170468-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>472170468</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Super 8 Pasedena Best Option In Area</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Pasedena Super 8 after a previous stay last summer. Was pleasantly surprised at all the improvements. The pool area is especially nice now with an upgraded deck area and a cabana area. Many guests were enjoying it on a warm day here in March. The rooms are also being renovated and my room had a larger HDTV and uprated cable service. Also a really nice walk-in shower. I have gotten to know the staff and they are very attentive to the guests and the property itself. They get high marks. Along with the usual Super 8 perks, like free breakfast, wifi etc. it's easily the best place to stay in an area that has many options.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Pasedena Super 8 after a previous stay last summer. Was pleasantly surprised at all the improvements. The pool area is especially nice now with an upgraded deck area and a cabana area. Many guests were enjoying it on a warm day here in March. The rooms are also being renovated and my room had a larger HDTV and uprated cable service. Also a really nice walk-in shower. I have gotten to know the staff and they are very attentive to the guests and the property itself. They get high marks. Along with the usual Super 8 perks, like free breakfast, wifi etc. it's easily the best place to stay in an area that has many options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r469667681-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>469667681</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in Cypress and Pasadena</t>
+  </si>
+  <si>
+    <t>Both motels were very clean, nicely upgraded.  Well-priced for the budget-minded, like ourselves. Front desk managers were very polite and helpful. Excellent locations -- close to freeways with many restaurants nearby. My husband and I would recommend these motels for anyone seeking a quality place to stay for reasonable prices.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r469640846-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>469640846</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r468716702-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>468716702</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>The bathroom was dirty,we can't sleep</t>
+  </si>
+  <si>
+    <t>(1)The bathroom is dirty (2)shower tub in bad condition(3)we can't sleep I can hear everything for the other rooms(4) over priced (5)my last day like at 7 am we need toilet paper I send my son to the from desk, and they tell my son is no  toilet paper,because I have to wait for house keeping person arrived at 8 am (6) really bad costumer service at the from desk I ask for my bill she said she can't printed for me (7) no good breakfast,MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>(1)The bathroom is dirty (2)shower tub in bad condition(3)we can't sleep I can hear everything for the other rooms(4) over priced (5)my last day like at 7 am we need toilet paper I send my son to the from desk, and they tell my son is no  toilet paper,because I have to wait for house keeping person arrived at 8 am (6) really bad costumer service at the from desk I ask for my bill she said she can't printed for me (7) no good breakfast,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r467645122-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>467645122</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>WHAT A FIND!!</t>
+  </si>
+  <si>
+    <t>Checked in without previously booking. Received good rate but was not sure as to quality of room, especially as person who was helping us to find a last minute motel was staying at a nearby one.The room was VERY clean, spacious, with 2 queen beds. The decor surprisingly modern and well thought out. The night's sleep was deep helped with wonderful bed and pillows. John, at the front desk was overly considerate and the General Manager, Raj Bhakta extremely accommodating to our special needs.There is a Denny's just up the road, a great sushi place to the left a few paces. If you wanted KFC, it's just across the street and a CVS 4 miles awayI would definitely recommend checking this wonderful find out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in without previously booking. Received good rate but was not sure as to quality of room, especially as person who was helping us to find a last minute motel was staying at a nearby one.The room was VERY clean, spacious, with 2 queen beds. The decor surprisingly modern and well thought out. The night's sleep was deep helped with wonderful bed and pillows. John, at the front desk was overly considerate and the General Manager, Raj Bhakta extremely accommodating to our special needs.There is a Denny's just up the road, a great sushi place to the left a few paces. If you wanted KFC, it's just across the street and a CVS 4 miles awayI would definitely recommend checking this wonderful find out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r465648987-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>465648987</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r463502006-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>463502006</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r458587634-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>458587634</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r458212967-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>458212967</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Bad..</t>
+  </si>
+  <si>
+    <t>Made a reservation on internet.Thought we would give it a try, since there were a few good reviews about this place.  Although nothing was mentioned about paying a fee for having a pet, we ended up paying one @ the front desk. So the guy placed us on the 2nd floor, in a smoking room.  We've stayed in "smoking" rooms before and yes they do have a smell.  But this room had a very, very strong cigarette smell.  There was even cigarette ashes between the bed and the bedside table!!!  And, of course, cigarette burns in the bedding &amp; on the dirty carpet.  To top it off..there was no running water!!!  Went down to the front desk to notify them.  The guy had to find out what was the reason..then said that the water was supposed to come back on in an hour or so..No!!!  It was all bad.  We had to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Made a reservation on internet.Thought we would give it a try, since there were a few good reviews about this place.  Although nothing was mentioned about paying a fee for having a pet, we ended up paying one @ the front desk. So the guy placed us on the 2nd floor, in a smoking room.  We've stayed in "smoking" rooms before and yes they do have a smell.  But this room had a very, very strong cigarette smell.  There was even cigarette ashes between the bed and the bedside table!!!  And, of course, cigarette burns in the bedding &amp; on the dirty carpet.  To top it off..there was no running water!!!  Went down to the front desk to notify them.  The guy had to find out what was the reason..then said that the water was supposed to come back on in an hour or so..No!!!  It was all bad.  We had to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r457240499-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>457240499</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">would recommend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place clean and organized I am very happy about the fridge because we our 1yr old need to keep her milk cold we have as well,very convenient location, close to everywhere,will come again if I stop by LA,more than expectation  friendly staff too </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r456190149-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>456190149</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Awesome place to stay for the price I paid.</t>
+  </si>
+  <si>
+    <t>Well maintained reception area with breakfast area.  Computer and printer available for free to use at lobby. Nice and helpful staff at reception. I got a queen room which was pretty clean. linens were clean and smelled good. It had mini refrigerator and microwave too. Very clean bathroom with many towels.  Loved their wifi speed. Was able to work from room and saved much time.  They also have good size pool but couldn't use it because of winter.  Lot of parking space available.  Overall a nice place to stay.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r454998445-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>454998445</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r453229726-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>453229726</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>The hotel doesn't look that bad from the outside , nice sized pool and well lit. Check in lady was very nice no problems . The room looked like it hadn't been cleaned in a while there was no mat to put in the shower . The cleaning lady's did not come in everyday of out stay and I found multiple bugs ( spiders , Insect ,  and a ROACH in my room. Disgusting . Not staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded February 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel doesn't look that bad from the outside , nice sized pool and well lit. Check in lady was very nice no problems . The room looked like it hadn't been cleaned in a while there was no mat to put in the shower . The cleaning lady's did not come in everyday of out stay and I found multiple bugs ( spiders , Insect ,  and a ROACH in my room. Disgusting . Not staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r449242518-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>449242518</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Rose Bowl Parade</t>
+  </si>
+  <si>
+    <t>We were there to watch the Rose Bowl Parade.  It was very well located close to all places we needed to go. Overall we were very pleased with this hotel.  The room was very spacious and although its an older hotel it was very nice and well kept.  the rooms were clean and looks to be recently remodeled.  The hotel staff was very nice and accommodating.  We requested a late check out so that we could come back after the parade and load up before hitting the road.  There was no problem with that and no charge.  I would recommend this hotel to anyone visiting this area and we will stay again if in the area for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We were there to watch the Rose Bowl Parade.  It was very well located close to all places we needed to go. Overall we were very pleased with this hotel.  The room was very spacious and although its an older hotel it was very nice and well kept.  the rooms were clean and looks to be recently remodeled.  The hotel staff was very nice and accommodating.  We requested a late check out so that we could come back after the parade and load up before hitting the road.  There was no problem with that and no charge.  I would recommend this hotel to anyone visiting this area and we will stay again if in the area for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r447228940-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>447228940</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r447206641-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>447206641</t>
+  </si>
+  <si>
+    <t>Extraordinary Guest Service</t>
+  </si>
+  <si>
+    <t>I am writing about a demonstration of extraordinary guest service! My college-age granddaughter visited Pasadena earlier this month and don't one night at the Super 8 Pasadena/LA area. When she checked out she inadvertently left her laptop computer in the room. Unfortunately, she did not realize the absence of her laptop until she arrived at my home in AZ.  I contacted the front desk and spoke with a very courteous young man named Ignacio who listened to my granddaughter's dilemma, located the lost laptop and put me in contact with the manager, Raj. Over the course of several days during the busy holiday season, Raj investigated the very best way to return the laptop. He went out of his way to check out shipping (UPS) and mailing (USPS). I am happy to report that the lost laptop now is back home with my granddaughter so she can finish her course projects on time! This experience strikes me as truly EXTRAORDINARY GUEST SERVICE. Thank you, Raj!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am writing about a demonstration of extraordinary guest service! My college-age granddaughter visited Pasadena earlier this month and don't one night at the Super 8 Pasadena/LA area. When she checked out she inadvertently left her laptop computer in the room. Unfortunately, she did not realize the absence of her laptop until she arrived at my home in AZ.  I contacted the front desk and spoke with a very courteous young man named Ignacio who listened to my granddaughter's dilemma, located the lost laptop and put me in contact with the manager, Raj. Over the course of several days during the busy holiday season, Raj investigated the very best way to return the laptop. He went out of his way to check out shipping (UPS) and mailing (USPS). I am happy to report that the lost laptop now is back home with my granddaughter so she can finish her course projects on time! This experience strikes me as truly EXTRAORDINARY GUEST SERVICE. Thank you, Raj!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r442426617-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>442426617</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r440033729-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>440033729</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t>Love to stay here when we're in the L.A.area its quite, there's only one thing that needs to improve badly and its the  beds they are to hard softer beds would improve anyone's stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded November 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2016</t>
+  </si>
+  <si>
+    <t>Love to stay here when we're in the L.A.area its quite, there's only one thing that needs to improve badly and its the  beds they are to hard softer beds would improve anyone's stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r438741377-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>438741377</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Overall clean, quiet in general. Rose bowl and convention center are very close to motel. Their pillows are the best I've experienced so far. I am in love with the pool area. Had a great stay. Will visit again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r434291216-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>434291216</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>The Super 8 had everything that I needed. The room was very comfortable. The desk clerk was very kind, and helpful. Did not use the pool but it looked well kept. Would definitely stay here again when in the area.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r434097365-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>434097365</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r432693358-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>432693358</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>i have been coming to this hotel for more than two years anid always have terrific stays!</t>
+  </si>
+  <si>
+    <t>The rooms spacious,and are very modern and well equipped with flat screen tvs, microwave, and frig. The staff here is very friendly and take care of the property when a custumers request help! Property is located close to downtown and points of transportation. I spend a lot of time in hotels but this is truly my favorite one. The staff is multilingual!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r428508376-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>428508376</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded October 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r428464080-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>428464080</t>
+  </si>
+  <si>
+    <t>Wonderful 3 day stay!</t>
+  </si>
+  <si>
+    <t>Check in with Ignacio (late shift guy with a great beard) was wonderful! 2nd stay at this Super 8. The room was clean, the price was great. I will stay again for sure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r426788701-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>426788701</t>
+  </si>
+  <si>
+    <t>10/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay in pasadena</t>
+  </si>
+  <si>
+    <t>Me and my friends went to visit LA last month and happened to stay in the motel at Pasadena. The location was pretty calm and the hospitality is overwhelming. Also on the other hand, pool area was very romantic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r423005403-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>423005403</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r422952366-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>422952366</t>
+  </si>
+  <si>
+    <t>Perfect stay for a perfect holiday vacation</t>
+  </si>
+  <si>
+    <t>Speaking about the motel, the ambience was totally perfect. It all started with a warm welcome from the reception and then heading towards the room. The room was perfectly decorated for the amount which they charged. The view of the motel was perfect near to the mountains. Calm and pleasant environment added an edge when compared to the other motels in Pasadena. The morning continental breakfast was very good. Out and out it was a fantastic experience for us to stay in Pasadena.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r422856529-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>422856529</t>
+  </si>
+  <si>
+    <t>Not Worth It</t>
+  </si>
+  <si>
+    <t>Wasn't as advertised. The room O had was filthy and outdated. Cigarette burns on sheets in a Non-Smoking room. Plantation Shutters are so cheap looking I felt there was no privacy--didn't feel secure (they do not completely cover the window). I paid $136 and for that price, I could've found a much better place to stay. I didn't even feel comfortable enough to shower. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wasn't as advertised. The room O had was filthy and outdated. Cigarette burns on sheets in a Non-Smoking room. Plantation Shutters are so cheap looking I felt there was no privacy--didn't feel secure (they do not completely cover the window). I paid $136 and for that price, I could've found a much better place to stay. I didn't even feel comfortable enough to shower. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r418252134-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>418252134</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>A glorified Motel 6</t>
+  </si>
+  <si>
+    <t>I got in late at night.  I had both of my dogs with me and usually there is a fee but I was surprised when the front desk clerk informed me it would be $40 per pet.  Then I was told because I had pets I was to be in smoking room.  I have asthma and smoke exacerbates this condition and it took a while but finally the desk clerk allowed me to be in a smoke free room.  The bed was fairly comfortable but I was once again disappointed to find the continental breakfast left something to be desired.  The entire set up was just generally sad and the coffee was terrible.  I have stayed in Super 8's all over the US and this was by far my least desired experience.  The pictures showed it had be re-done and aesthetically it was but when it came down to it, it was a motel 6 with over inflated prices.  I will not be returning to this particular Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>I got in late at night.  I had both of my dogs with me and usually there is a fee but I was surprised when the front desk clerk informed me it would be $40 per pet.  Then I was told because I had pets I was to be in smoking room.  I have asthma and smoke exacerbates this condition and it took a while but finally the desk clerk allowed me to be in a smoke free room.  The bed was fairly comfortable but I was once again disappointed to find the continental breakfast left something to be desired.  The entire set up was just generally sad and the coffee was terrible.  I have stayed in Super 8's all over the US and this was by far my least desired experience.  The pictures showed it had be re-done and aesthetically it was but when it came down to it, it was a motel 6 with over inflated prices.  I will not be returning to this particular Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r415855820-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>415855820</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Aesthetically nice, but disappointed.</t>
+  </si>
+  <si>
+    <t>This hotel is in a shady neighborhood. There are a few homeless people within area along with drug incidents happening in and around the hotel while we were there.  It has been remodeled and has new carpet, drapes and furniture. However, the beds are super uncomfortable. They are hard as can be. The bathroom was not done over either. The tubs and paint on the walls are worn, as is the shower curtains. (torn on both sides). The towels are large hand towels. Bad! The pool was nice and clean. The property also gives a continental breakfast. Coffee, juice (cereal, sweet rolls, white bread, apples, waffles and yogurt). Stay at the other choice hotels along Colorado Blvd.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a shady neighborhood. There are a few homeless people within area along with drug incidents happening in and around the hotel while we were there.  It has been remodeled and has new carpet, drapes and furniture. However, the beds are super uncomfortable. They are hard as can be. The bathroom was not done over either. The tubs and paint on the walls are worn, as is the shower curtains. (torn on both sides). The towels are large hand towels. Bad! The pool was nice and clean. The property also gives a continental breakfast. Coffee, juice (cereal, sweet rolls, white bread, apples, waffles and yogurt). Stay at the other choice hotels along Colorado Blvd.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r415546270-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>415546270</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r402065590-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>402065590</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Exceeded expectations</t>
+  </si>
+  <si>
+    <t>Spent two nights the last week in July and was pleasantly surprised.  It was the only hotel in the Pasadena area that was available in my budget.  Reception looked newly renovated; clean and modern.  Check in was easy.Room:- Basic, but clean. I know because after reading some of the reviews, I admit I took a washcloth and started to wipe down the surfaces and not the slightest bit of dirt or dust!   -Microwave and fridge which was great.  -Big TV-Decor was an eclectic mix of 80's carpeting and new oversized chair with modern pattern which matched the bedsheets, but I liked it.  -Plenty of parking and it was free.-Didn't use the pool facilities, but were clean and well maintained.In summary, clean comfortable room at a really great price given other choices in the area.  LA is expensive, so either adjust your expectations or increase your budget by several hundred $'s a night plus $25 a day to park!  Only negative was the internet- was patchy as mentioned in other reviews- and really should be sorted out by corporate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent two nights the last week in July and was pleasantly surprised.  It was the only hotel in the Pasadena area that was available in my budget.  Reception looked newly renovated; clean and modern.  Check in was easy.Room:- Basic, but clean. I know because after reading some of the reviews, I admit I took a washcloth and started to wipe down the surfaces and not the slightest bit of dirt or dust!   -Microwave and fridge which was great.  -Big TV-Decor was an eclectic mix of 80's carpeting and new oversized chair with modern pattern which matched the bedsheets, but I liked it.  -Plenty of parking and it was free.-Didn't use the pool facilities, but were clean and well maintained.In summary, clean comfortable room at a really great price given other choices in the area.  LA is expensive, so either adjust your expectations or increase your budget by several hundred $'s a night plus $25 a day to park!  Only negative was the internet- was patchy as mentioned in other reviews- and really should be sorted out by corporate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r401498692-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>401498692</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>I'd booked this as there were few options for available hotels on short notice. We had to drive a bit for this place, but I also knew that when I booked it. The was way above what I expected for a two star property. The rooms were nice and clean, it was quiet, and for just a place to sleep that night it went above the bar. I would recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r397501717-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>397501717</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r394756394-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>394756394</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Best budget lodging in area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was between apartments and stayed here on and off over a couple months. Friendly professional staff and great location. Recently renovated exterior and nice pool area. Rooms are basic but comfortable and include handy refrigerator and microwave. Also free Wi-Fi and breakfast Would stay here again. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r392585281-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>392585281</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r391771298-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>391771298</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>Great parking , clean rooms &amp; It was very quiet.  The property was clean I'll definitely be back thx guys</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r390802334-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>390802334</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice property; room was comfortable; breakfast is a simple continental with not much variety; internet wi-fi needs to be a better, consistent connection. Shower curtain could have used an updated new one. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r390119020-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>390119020</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r389594323-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>389594323</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Mixed feelings, looking for another hotel for future stays.</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for the 2 weeks we were in Pasadena, and found it unsatisfactory. The staff was friendly and welcoming, but the rooms were a completely different story. Upon our arrival we found the room to be very dusty and the sheets were stained and had holes through them. We ended up cleaning the room ourselves and disinfected it due to the lack of cleanliness.There was a 2 inch gap between the door and door frame, enough that you could look through. The pictures posted online are very misleading and look nothing like the rooms or bathrooms at all (at least ours did not). The pool was dirty, where it had cigarettes and clumps of hair floating in it. Lastly the wifi was poor, and would only allow us to connect early in the morning or late each evening. Looking for another hotel/motel for our next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>PasadenaSuper8, Front Office Manager at Super 8 by Wyndham Pasadena/La Area, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for the 2 weeks we were in Pasadena, and found it unsatisfactory. The staff was friendly and welcoming, but the rooms were a completely different story. Upon our arrival we found the room to be very dusty and the sheets were stained and had holes through them. We ended up cleaning the room ourselves and disinfected it due to the lack of cleanliness.There was a 2 inch gap between the door and door frame, enough that you could look through. The pictures posted online are very misleading and look nothing like the rooms or bathrooms at all (at least ours did not). The pool was dirty, where it had cigarettes and clumps of hair floating in it. Lastly the wifi was poor, and would only allow us to connect early in the morning or late each evening. Looking for another hotel/motel for our next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r384826750-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>384826750</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved everything about this motel. Great room and the best Super 8 we have ever stayed in. Only disapointment was they would not give AARP discount and that would have really made a difference since we paid for 7 nights. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r384008967-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>384008967</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visited Pasadena for the Vegan food and beer festival. Friendly service, very clean, nice pool and reasonably priced. Our reservation at another hotel did not work out. Raj was very accommodating at the last minute. We would stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r382889081-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
+  </si>
+  <si>
+    <t>382889081</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Mixed feelings</t>
+  </si>
+  <si>
+    <t>I have mixed feelings about this motel.  The room was clean, including the bathroom, and it was quiet.  Also, there was an elevator, which is unusual in a two or three story motel.  OTOH, the internet access was poor.  I was able to log on at 6am, but after that, it was impossible for me to access wifi.  And the free continental breakfast was pretty bad.  Even the waffle syrup seemed to be diluted, barely sweet.  When we first checked in, and asked for a non-smoking room, we were put in a room that reeked of tobacco smoke.  But the manager did quickly move us to a different room.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2098,5788 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>186</v>
+      </c>
+      <c r="X25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>179</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>179</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>212</v>
+      </c>
+      <c r="X30" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" t="s">
+        <v>227</v>
+      </c>
+      <c r="L33" t="s">
+        <v>228</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>212</v>
+      </c>
+      <c r="X34" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" t="s">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s">
+        <v>240</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>234</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" t="s">
+        <v>99</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>246</v>
+      </c>
+      <c r="X36" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s">
+        <v>252</v>
+      </c>
+      <c r="L37" t="s">
+        <v>253</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>234</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>99</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>246</v>
+      </c>
+      <c r="X38" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>246</v>
+      </c>
+      <c r="X39" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" t="s">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s">
+        <v>263</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>246</v>
+      </c>
+      <c r="X40" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>270</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>279</v>
+      </c>
+      <c r="X43" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>87</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>286</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" t="s">
+        <v>288</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>270</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>289</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>290</v>
+      </c>
+      <c r="J46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>99</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>292</v>
+      </c>
+      <c r="J47" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>294</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" t="s">
+        <v>297</v>
+      </c>
+      <c r="K48" t="s">
+        <v>298</v>
+      </c>
+      <c r="L48" t="s">
+        <v>299</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>294</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>300</v>
+      </c>
+      <c r="X48" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>304</v>
+      </c>
+      <c r="J49" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" t="s">
+        <v>306</v>
+      </c>
+      <c r="L49" t="s">
+        <v>307</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>309</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>310</v>
+      </c>
+      <c r="J50" t="s">
+        <v>311</v>
+      </c>
+      <c r="K50" t="s">
+        <v>312</v>
+      </c>
+      <c r="L50" t="s">
+        <v>313</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>294</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>315</v>
+      </c>
+      <c r="J51" t="s">
+        <v>311</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>294</v>
+      </c>
+      <c r="O51" t="s">
+        <v>87</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" t="s">
+        <v>319</v>
+      </c>
+      <c r="L52" t="s">
+        <v>320</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>294</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>321</v>
+      </c>
+      <c r="X52" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>325</v>
+      </c>
+      <c r="J53" t="s">
+        <v>326</v>
+      </c>
+      <c r="K53" t="s">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s">
+        <v>328</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>294</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>330</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>331</v>
+      </c>
+      <c r="J54" t="s">
+        <v>332</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>294</v>
+      </c>
+      <c r="O54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>334</v>
+      </c>
+      <c r="J55" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>336</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>338</v>
+      </c>
+      <c r="J56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>336</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" t="s">
+        <v>342</v>
+      </c>
+      <c r="K57" t="s">
+        <v>343</v>
+      </c>
+      <c r="L57" t="s">
+        <v>344</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>336</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>345</v>
+      </c>
+      <c r="X57" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>348</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>349</v>
+      </c>
+      <c r="J58" t="s">
+        <v>350</v>
+      </c>
+      <c r="K58" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" t="s">
+        <v>352</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" t="s">
+        <v>355</v>
+      </c>
+      <c r="K59" t="s">
+        <v>356</v>
+      </c>
+      <c r="L59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>358</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>359</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>360</v>
+      </c>
+      <c r="J60" t="s">
+        <v>361</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>358</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>363</v>
+      </c>
+      <c r="J61" t="s">
+        <v>364</v>
+      </c>
+      <c r="K61" t="s">
+        <v>365</v>
+      </c>
+      <c r="L61" t="s">
+        <v>366</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>358</v>
+      </c>
+      <c r="O61" t="s">
+        <v>87</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>367</v>
+      </c>
+      <c r="X61" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>370</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>371</v>
+      </c>
+      <c r="J62" t="s">
+        <v>372</v>
+      </c>
+      <c r="K62" t="s">
+        <v>373</v>
+      </c>
+      <c r="L62" t="s">
+        <v>374</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>378</v>
+      </c>
+      <c r="J63" t="s">
+        <v>379</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>375</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>380</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>381</v>
+      </c>
+      <c r="J64" t="s">
+        <v>379</v>
+      </c>
+      <c r="K64" t="s">
+        <v>382</v>
+      </c>
+      <c r="L64" t="s">
+        <v>383</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>385</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J65" t="s">
+        <v>387</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>375</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>389</v>
+      </c>
+      <c r="J66" t="s">
+        <v>390</v>
+      </c>
+      <c r="K66" t="s">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s">
+        <v>392</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>393</v>
+      </c>
+      <c r="O66" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>394</v>
+      </c>
+      <c r="X66" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>397</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>398</v>
+      </c>
+      <c r="J67" t="s">
+        <v>399</v>
+      </c>
+      <c r="K67" t="s">
+        <v>400</v>
+      </c>
+      <c r="L67" t="s">
+        <v>401</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>393</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>403</v>
+      </c>
+      <c r="J68" t="s">
+        <v>404</v>
+      </c>
+      <c r="K68" t="s">
+        <v>405</v>
+      </c>
+      <c r="L68" t="s">
+        <v>406</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>407</v>
+      </c>
+      <c r="O68" t="s">
+        <v>106</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>408</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>409</v>
+      </c>
+      <c r="J69" t="s">
+        <v>410</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>411</v>
+      </c>
+      <c r="O69" t="s">
+        <v>106</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>413</v>
+      </c>
+      <c r="J70" t="s">
+        <v>414</v>
+      </c>
+      <c r="K70" t="s">
+        <v>415</v>
+      </c>
+      <c r="L70" t="s">
+        <v>416</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>411</v>
+      </c>
+      <c r="O70" t="s">
+        <v>99</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>418</v>
+      </c>
+      <c r="J71" t="s">
+        <v>419</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>411</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>420</v>
+      </c>
+      <c r="X71" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>422</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>423</v>
+      </c>
+      <c r="J72" t="s">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s">
+        <v>424</v>
+      </c>
+      <c r="L72" t="s">
+        <v>425</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>411</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>426</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>427</v>
+      </c>
+      <c r="J73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K73" t="s">
+        <v>429</v>
+      </c>
+      <c r="L73" t="s">
+        <v>430</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>411</v>
+      </c>
+      <c r="O73" t="s">
+        <v>106</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>431</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>432</v>
+      </c>
+      <c r="J74" t="s">
+        <v>433</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>434</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>435</v>
+      </c>
+      <c r="X74" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>437</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>438</v>
+      </c>
+      <c r="J75" t="s">
+        <v>433</v>
+      </c>
+      <c r="K75" t="s">
+        <v>439</v>
+      </c>
+      <c r="L75" t="s">
+        <v>440</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>434</v>
+      </c>
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>441</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>442</v>
+      </c>
+      <c r="J76" t="s">
+        <v>433</v>
+      </c>
+      <c r="K76" t="s">
+        <v>443</v>
+      </c>
+      <c r="L76" t="s">
+        <v>444</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>435</v>
+      </c>
+      <c r="X76" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>446</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>447</v>
+      </c>
+      <c r="J77" t="s">
+        <v>448</v>
+      </c>
+      <c r="K77" t="s">
+        <v>449</v>
+      </c>
+      <c r="L77" t="s">
+        <v>450</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>434</v>
+      </c>
+      <c r="O77" t="s">
+        <v>99</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>451</v>
+      </c>
+      <c r="X77" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>454</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>455</v>
+      </c>
+      <c r="J78" t="s">
+        <v>456</v>
+      </c>
+      <c r="K78" t="s">
+        <v>457</v>
+      </c>
+      <c r="L78" t="s">
+        <v>458</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>211</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>460</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>461</v>
+      </c>
+      <c r="J79" t="s">
+        <v>462</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>434</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>464</v>
+      </c>
+      <c r="J80" t="s">
+        <v>465</v>
+      </c>
+      <c r="K80" t="s">
+        <v>466</v>
+      </c>
+      <c r="L80" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>211</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>470</v>
+      </c>
+      <c r="J81" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" t="s">
+        <v>472</v>
+      </c>
+      <c r="L81" t="s">
+        <v>473</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>211</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>474</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>475</v>
+      </c>
+      <c r="J82" t="s">
+        <v>476</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>211</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>477</v>
+      </c>
+      <c r="X82" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>479</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>480</v>
+      </c>
+      <c r="J83" t="s">
+        <v>481</v>
+      </c>
+      <c r="K83" t="s">
+        <v>482</v>
+      </c>
+      <c r="L83" t="s">
+        <v>483</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>484</v>
+      </c>
+      <c r="O83" t="s">
+        <v>99</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>485</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>486</v>
+      </c>
+      <c r="J84" t="s">
+        <v>487</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>211</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>488</v>
+      </c>
+      <c r="X84" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>490</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>491</v>
+      </c>
+      <c r="J85" t="s">
+        <v>492</v>
+      </c>
+      <c r="K85" t="s">
+        <v>493</v>
+      </c>
+      <c r="L85" t="s">
+        <v>494</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>211</v>
+      </c>
+      <c r="O85" t="s">
+        <v>87</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>495</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>496</v>
+      </c>
+      <c r="J86" t="s">
+        <v>497</v>
+      </c>
+      <c r="K86" t="s">
+        <v>498</v>
+      </c>
+      <c r="L86" t="s">
+        <v>499</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>211</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>500</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>501</v>
+      </c>
+      <c r="J87" t="s">
+        <v>502</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>484</v>
+      </c>
+      <c r="O87" t="s">
+        <v>87</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>503</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>504</v>
+      </c>
+      <c r="J88" t="s">
+        <v>505</v>
+      </c>
+      <c r="K88" t="s">
+        <v>506</v>
+      </c>
+      <c r="L88" t="s">
+        <v>507</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>484</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>508</v>
+      </c>
+      <c r="X88" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>511</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>512</v>
+      </c>
+      <c r="J89" t="s">
+        <v>513</v>
+      </c>
+      <c r="K89" t="s">
+        <v>514</v>
+      </c>
+      <c r="L89" t="s">
+        <v>515</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>484</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>516</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>517</v>
+      </c>
+      <c r="J90" t="s">
+        <v>518</v>
+      </c>
+      <c r="K90" t="s">
+        <v>519</v>
+      </c>
+      <c r="L90" t="s">
+        <v>520</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>484</v>
+      </c>
+      <c r="O90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10384</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>521</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>522</v>
+      </c>
+      <c r="J91" t="s">
+        <v>523</v>
+      </c>
+      <c r="K91" t="s">
+        <v>524</v>
+      </c>
+      <c r="L91" t="s">
+        <v>525</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>484</v>
+      </c>
+      <c r="O91" t="s">
+        <v>87</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_743.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="614">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>gterry386230</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Maureen Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r572461479-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>mrical639735</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r571581036-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>sewingoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r563734003-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Jeff K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r562002448-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>Again after decades of other places and those horrible bed spreads that should never be manufactured, super 8 has the best bed spreads. Room was fine, refrigerator dial black on black, tough to find. Tv reception was horrible, three days of it cutting out about 15% of every hour. They did try fixing but just never happened.</t>
   </si>
   <si>
+    <t>Robert J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r560664020-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>Super 8 Pasadena is a very nice and accommodating hotel located close to downtown, but in a quiet area. I would recommend it and will be staying here next time I'm in town.</t>
   </si>
   <si>
+    <t>863marir2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554859102-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>AliE241</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554408796-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>The receptionist was very nice and helpful before we checked in but it went downhill very quickly after that.Really awful hotel, looks nothing like the picture.   Its dated, dirty, the shower didn't work and its the worst night sleep I have had for a long time. More</t>
   </si>
   <si>
+    <t>mckinleyw2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r554244280-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Janine K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r551156705-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>laurentdO3893TL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r551000424-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>Ok place, good value. Blinds let the light in. Tv service didn’t work and they didn’t offer discount More</t>
   </si>
   <si>
+    <t>khalilahk2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r549781288-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>It was okay. I thought my room had hardwood floors like the picture, but it didn't. It was remodeled. Also they were having cable/internet issues the night I stayed  More</t>
   </si>
   <si>
+    <t>481toni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r542661595-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>bonniek634</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r542657274-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -411,6 +453,9 @@
     <t xml:space="preserve">I basically just spent the night there but the staff is always great the breakfast is always nicely displayed not very interesting but but breakfast </t>
   </si>
   <si>
+    <t>Steve517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r532911739-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -429,6 +474,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Q9809GOmarcc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r529963494-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>10/04/2017</t>
   </si>
   <si>
+    <t>pooh4cindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r528139186-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -456,6 +507,9 @@
     <t>We arrived early from our trip down to Pasadena. We were greated &amp; given early check-on, as my four 18 year old road trip partners were anxious to get to Universal Studios. Room was great, as always. The only issue was with my Wyndham Rewards. Once at the hotel, they were unable to access my rewards. When I called the customer service #, I got voice prompt to call back during busyness hours on Monday. So the $65 room now cost me over $150 which cut into my kids sending money for the evening. I still have yet to hear back regarding Wyndhams response for a refund. The only reason I book this hotel is for the great customer service and my rewards points. I hope this gets resolved before I need to book another trip down. More</t>
   </si>
   <si>
+    <t>Q5972CQmichaels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r524252842-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -480,6 +534,9 @@
     <t>Had to deal with drug deals and crack heads .management knew about this and allowed it to happen More</t>
   </si>
   <si>
+    <t>126constancem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r521154502-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -507,6 +564,9 @@
     <t>While pets were allowed, there was NO designated pet area for waste. I had to walk my dog in the residential neighborhood, this was quite inconvenient. The pet fee was $40.00 per night, there should have been a pet area within the Motel.More</t>
   </si>
   <si>
+    <t>W7882TKbarbaras</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r520249798-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -525,6 +585,9 @@
     <t>I was in Pasadena for an extended period and chose Super 8 to stay for that period.  The motel was terrible, expecially the staff who were rude and unresponsive.  I have never stayed at a motel that has treated me as poorly as this one.  I would recommend that you never choose this motel as there are many other choices on Colorado Boulevard nearby.More</t>
   </si>
   <si>
+    <t>343pearll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r520008877-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>This is our second years staying at the same hotel..  the receptionist was very friendly and caring.  This is our yearly stay.</t>
   </si>
   <si>
+    <t>donaldv276</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r508871715-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -558,6 +624,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>A867JVkenw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r508123736-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -567,6 +636,9 @@
     <t>08/02/2017</t>
   </si>
   <si>
+    <t>D3658YMjohnf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r507751340-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -582,6 +654,9 @@
     <t>Responded August 11, 2017</t>
   </si>
   <si>
+    <t>L6000NDheidis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r505505714-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>This property was nice and clean. Breakfast was ok but not what we were really looking for. We were gone most of the day so we were there mainly to sleep. The wifi was horrible! Our devices are fairly new and work/function other businesses where wifi is available. Unfortunately, this was not the case here.</t>
   </si>
   <si>
+    <t>78kevinz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r503968219-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -606,6 +684,9 @@
     <t>07/20/2017</t>
   </si>
   <si>
+    <t>michele4063</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r502224986-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -621,6 +702,9 @@
     <t>Super nice front desk staff Gabriella, Accomadated all of our needs. I really liked that there was tile and no carpet, as motel carpet can give you the willies, No ugly heavy drapes either. Plantation shutters. Nice pool. Average breakfast. Very Quiet. Close to everything. I little hidden gem.</t>
   </si>
   <si>
+    <t>Joseph K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r500306021-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -634,6 +718,9 @@
   </si>
   <si>
     <t>Very nice hotel for everything you need for a weeks vacation. The rooms were very clean and the service was good. Very good location to find anything for your needs while away from home. Also nice location to travel to all the attractions in the area. I will  definitely stay here again when back in the area.</t>
+  </si>
+  <si>
+    <t>Steven S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r497221337-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
@@ -667,6 +754,9 @@
 Match this with the really...On several occasions due to renovations to my home and other occasions when I had to find short term accommodations, I have stayed at Super 8 in Pasadena.  While the price is reasonable, I have experienced various issues with noise, cleanliness and service.   I have had occasions when I became very frustrated with the attitude and unhelpfulness of the front desk clerk.  Once when I had specifically requested a room on the top floor away from the staircase (which from past experience I found was the only way I could get away from constant noise and get some sleep) as I usually do, the clerk was unapologetic when I checked in to find myself given a parking lot level room next to the stairs even though  the hotel had confirmed the details of my reservation and  had acknowleged my request.  The clerk shrugged and said "You didn't speak with me" and apparently the hotel was fully booked so I could not change my room. I personally saw what I believe were prostitutes going in and out of one of the rooms nearby all night doing their business. One night I overheard a very loud argument between one of these women and what I assume was her pimp right outside my room window which dragged on for what seemed to be at least 10 minutes. Needless to say it wasn't very entertaining so late at night. Match this with the really bad and weak wifi, the unsecured parking lot with what seems no security at all and the dingy rooms with shoddy appointments, I found myself so frustrated that I checked out the next morning and found a room elsewhere. While I understand that this is a budget motel and the price is low, I do know that there are better spots to crash in the area for the same amount of money.  In this regard,  I won't ever  book a room at Super 8 - honestly, I would rather sleep in the backseat of my car than ever give another nickel to this hotel.More</t>
   </si>
   <si>
+    <t>Cecilia Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r496872651-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -679,6 +769,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Joelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r493972378-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -697,6 +790,9 @@
     <t>This little "dog friendly" motel is great for 1 night while passing through to someplace else unless you are in Pasadena for other activities.  It is remodeled and the rooms are fairly spacious.  There is a nice pool and tables in the pool area.  The air conditioning worked well and it was quiet.  The beds are newer and comfortable.  The price was reasonable for 2 queen beds but the dog fee was kind of high, $40.00 which is more than most that we have found and she is only 5 pounds.  It is right in the middle of an area where there are lots of walkable restaurants and if you drive, there are more options.  One huge drawback, the office staff is lackadaisical except for one young lady who was marvelous.  We had interaction with 3 young men and one could not get off his phone playing games.  Lily was great, the other 3 men, not so much.  The breakfast is grab and go (cereal and make it yourself waffles).  No amenities here, but good overnight stay.More</t>
   </si>
   <si>
+    <t>Bi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r493968659-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -709,6 +805,9 @@
     <t>wow what a wonderful place to stay in, felt very safe and comforted, would love to stay in a hotel like this again, thanks again super 8 for making my stay peaceful and bugless, can't wait to keep on keeping on!</t>
   </si>
   <si>
+    <t>G670UNjosee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r491858067-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -730,6 +829,9 @@
     <t>The room was to duty the smell was very bad dirt all over the carpet it's was a nightmare for my family.More</t>
   </si>
   <si>
+    <t>Andrew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r489645040-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -745,6 +847,9 @@
     <t>Always use Super 8 with Wyndham for several years and this would of gotten 5 stars except.Very good breakfast with waffle maker.coffee excellent from machine..BUT..it's located in the lobby and is much too Cramped.with a few tables which is not based on occupancy.parking stalls large.room looked recently renovated n very clean.BUT.SOAP.(1/8x3x4).Bareley enough for 1 shower.Pasedena is a very clean town.very few homeless.Motel is in good location,highway access,restaurants and old town.</t>
   </si>
   <si>
+    <t>480sylviaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r488907816-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -769,6 +874,9 @@
     <t>The accommodations were fine. However, they deactivated my key on the second day of my stay and they change the password on the internet on the last day of my stay....it made me feel a little unwelcomeMore</t>
   </si>
   <si>
+    <t>kathleenr543</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r487986179-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -784,6 +892,9 @@
     <t xml:space="preserve">My husband and I used this motel in Pasadena for a concert at the Rose Bowl.  The front desk was very helpful with parking questions and we had a great time.  The room was very comfortable and clean.  Breakfast was not bad either.  Thank you. </t>
   </si>
   <si>
+    <t>mij85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r486972503-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -793,12 +904,18 @@
     <t>05/23/2017</t>
   </si>
   <si>
+    <t>christinav924</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r486966061-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
     <t>486966061</t>
   </si>
   <si>
+    <t>436753</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r485686898-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -817,6 +934,9 @@
     <t>The bed was rock hard- didn't sleep all night! ..and only after complaining about the bed did they tell me they are replacing ALL the beds in the hotel for that reason. appliances were old and dryer didn't work.  The walls are paper thin and the room next to us was in and out of the room talking all night until 5am.  We didn't sleep at all.  When I informed the front desk the following day that we would like to check out one day earlier than expected because we could not possibly sleep there another night, they agreed to refund the next night, but still to this day have not given me my money back. It was supposed to be a special mother's day and turned out to be a nightmare.  worst customer service experience and stay ..ever!More</t>
   </si>
   <si>
+    <t>michaelpR7404QP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r483674399-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -835,6 +955,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>462guest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r483458251-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -850,6 +973,9 @@
     <t xml:space="preserve">The room was nice, decent size and clean. The bed was uncomfortable and hard. Spoke to the woman at the front desk and she offered to switch me rooms which was nice. Staff was very friendly. Room was located on the 1st floor so was able to hear all the commotion outside so will switch floors next time I stay. Thank you. </t>
   </si>
   <si>
+    <t>xxx656</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r479916575-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -865,6 +991,9 @@
     <t>Responded May 3, 2017</t>
   </si>
   <si>
+    <t>O8376YOscottb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r476852998-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -880,6 +1009,9 @@
     <t xml:space="preserve">Friendly staff, great location... just a few blocks to great restaurants and antique shops, a few miles to museums and old town Pasadena. </t>
   </si>
   <si>
+    <t>347wardh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r474816298-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -889,12 +1021,18 @@
     <t>04/11/2017</t>
   </si>
   <si>
+    <t>paultD8496LQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r474745118-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
     <t>474745118</t>
   </si>
   <si>
+    <t>629corym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472910064-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -907,6 +1045,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Q1189GKnancyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472667711-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -931,6 +1072,9 @@
     <t>The manager, Raj Bhatia, charged me $100 in fraudulent charges that I had to report to American express. He was so unpleasant because i asked if the broken air conditioner could be fixed. He said i was lying and when I disputed that and he got so angry he started yelling. He was so worked up he started coughing . Once he stopped he was shaking. I was holding my 18 month old and was afraid for her safety. He shouted  an obscenity at me With a baby in my arms!I have complained to the company and will NEVER stay at a Super 8 againMore</t>
   </si>
   <si>
+    <t>Dave330032</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r472170468-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -949,6 +1093,9 @@
     <t>I recently stayed at the Pasedena Super 8 after a previous stay last summer. Was pleasantly surprised at all the improvements. The pool area is especially nice now with an upgraded deck area and a cabana area. Many guests were enjoying it on a warm day here in March. The rooms are also being renovated and my room had a larger HDTV and uprated cable service. Also a really nice walk-in shower. I have gotten to know the staff and they are very attentive to the guests and the property itself. They get high marks. Along with the usual Super 8 perks, like free breakfast, wifi etc. it's easily the best place to stay in an area that has many options.More</t>
   </si>
   <si>
+    <t>ciscos2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r469667681-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -964,12 +1111,18 @@
     <t>Both motels were very clean, nicely upgraded.  Well-priced for the budget-minded, like ourselves. Front desk managers were very polite and helpful. Excellent locations -- close to freeways with many restaurants nearby. My husband and I would recommend these motels for anyone seeking a quality place to stay for reasonable prices.</t>
   </si>
   <si>
+    <t>O123NVtonym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r469640846-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
     <t>469640846</t>
   </si>
   <si>
+    <t>D9334WPcristianp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r468716702-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -994,6 +1147,9 @@
     <t>(1)The bathroom is dirty (2)shower tub in bad condition(3)we can't sleep I can hear everything for the other rooms(4) over priced (5)my last day like at 7 am we need toilet paper I send my son to the from desk, and they tell my son is no  toilet paper,because I have to wait for house keeping person arrived at 8 am (6) really bad costumer service at the from desk I ask for my bill she said she can't printed for me (7) no good breakfast,More</t>
   </si>
   <si>
+    <t>theozkee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r467645122-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1012,6 +1168,9 @@
     <t>Checked in without previously booking. Received good rate but was not sure as to quality of room, especially as person who was helping us to find a last minute motel was staying at a nearby one.The room was VERY clean, spacious, with 2 queen beds. The decor surprisingly modern and well thought out. The night's sleep was deep helped with wonderful bed and pillows. John, at the front desk was overly considerate and the General Manager, Raj Bhakta extremely accommodating to our special needs.There is a Denny's just up the road, a great sushi place to the left a few paces. If you wanted KFC, it's just across the street and a CVS 4 miles awayI would definitely recommend checking this wonderful find out!More</t>
   </si>
   <si>
+    <t>Roni W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r465648987-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1021,6 +1180,9 @@
     <t>03/08/2017</t>
   </si>
   <si>
+    <t>GREG G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r463502006-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1033,6 +1195,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>426junep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r458587634-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1042,6 +1207,9 @@
     <t>02/10/2017</t>
   </si>
   <si>
+    <t>AlohaSpirit808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r458212967-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1066,6 +1234,9 @@
     <t>Made a reservation on internet.Thought we would give it a try, since there were a few good reviews about this place.  Although nothing was mentioned about paying a fee for having a pet, we ended up paying one @ the front desk. So the guy placed us on the 2nd floor, in a smoking room.  We've stayed in "smoking" rooms before and yes they do have a smell.  But this room had a very, very strong cigarette smell.  There was even cigarette ashes between the bed and the bedside table!!!  And, of course, cigarette burns in the bedding &amp; on the dirty carpet.  To top it off..there was no running water!!!  Went down to the front desk to notify them.  The guy had to find out what was the reason..then said that the water was supposed to come back on in an hour or so..No!!!  It was all bad.  We had to leave.More</t>
   </si>
   <si>
+    <t>BubbleTv C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r457240499-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1081,6 +1252,9 @@
     <t xml:space="preserve">Nice place clean and organized I am very happy about the fridge because we our 1yr old need to keep her milk cold we have as well,very convenient location, close to everywhere,will come again if I stop by LA,more than expectation  friendly staff too </t>
   </si>
   <si>
+    <t>DarrenShowe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r456190149-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1099,6 +1273,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>L2269XRcharlottem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r454998445-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1108,6 +1285,9 @@
     <t>01/26/2017</t>
   </si>
   <si>
+    <t>994celester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r453229726-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1132,6 +1312,9 @@
     <t>The hotel doesn't look that bad from the outside , nice sized pool and well lit. Check in lady was very nice no problems . The room looked like it hadn't been cleaned in a while there was no mat to put in the shower . The cleaning lady's did not come in everyday of out stay and I found multiple bugs ( spiders , Insect ,  and a ROACH in my room. Disgusting . Not staying here again.More</t>
   </si>
   <si>
+    <t>Denice B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r449242518-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1153,6 +1336,9 @@
     <t>We were there to watch the Rose Bowl Parade.  It was very well located close to all places we needed to go. Overall we were very pleased with this hotel.  The room was very spacious and although its an older hotel it was very nice and well kept.  the rooms were clean and looks to be recently remodeled.  The hotel staff was very nice and accommodating.  We requested a late check out so that we could come back after the parade and load up before hitting the road.  There was no problem with that and no charge.  I would recommend this hotel to anyone visiting this area and we will stay again if in the area for sure.More</t>
   </si>
   <si>
+    <t>titchentom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r447228940-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1162,6 +1348,9 @@
     <t>12/28/2016</t>
   </si>
   <si>
+    <t>Gail D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r447206641-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1177,6 +1366,9 @@
     <t>I am writing about a demonstration of extraordinary guest service! My college-age granddaughter visited Pasadena earlier this month and don't one night at the Super 8 Pasadena/LA area. When she checked out she inadvertently left her laptop computer in the room. Unfortunately, she did not realize the absence of her laptop until she arrived at my home in AZ.  I contacted the front desk and spoke with a very courteous young man named Ignacio who listened to my granddaughter's dilemma, located the lost laptop and put me in contact with the manager, Raj. Over the course of several days during the busy holiday season, Raj investigated the very best way to return the laptop. He went out of his way to check out shipping (UPS) and mailing (USPS). I am happy to report that the lost laptop now is back home with my granddaughter so she can finish her course projects on time! This experience strikes me as truly EXTRAORDINARY GUEST SERVICE. Thank you, Raj!More</t>
   </si>
   <si>
+    <t>Wilmy47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r442426617-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1186,6 +1378,9 @@
     <t>12/06/2016</t>
   </si>
   <si>
+    <t>Floyd W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r440033729-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1213,6 +1408,9 @@
     <t>Love to stay here when we're in the L.A.area its quite, there's only one thing that needs to improve badly and its the  beds they are to hard softer beds would improve anyone's stay.More</t>
   </si>
   <si>
+    <t>Marshal137</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r438741377-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1228,6 +1426,9 @@
     <t>Overall clean, quiet in general. Rose bowl and convention center are very close to motel. Their pillows are the best I've experienced so far. I am in love with the pool area. Had a great stay. Will visit again!</t>
   </si>
   <si>
+    <t>MrLandos14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r434291216-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1246,6 +1447,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Tamishia N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r434097365-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1258,6 +1462,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>johnmira2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r432693358-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1273,6 +1480,9 @@
     <t>The rooms spacious,and are very modern and well equipped with flat screen tvs, microwave, and frig. The staff here is very friendly and take care of the property when a custumers request help! Property is located close to downtown and points of transportation. I spend a lot of time in hotels but this is truly my favorite one. The staff is multilingual!</t>
   </si>
   <si>
+    <t>Tom H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r428508376-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1288,6 +1498,9 @@
     <t>Responded October 23, 2016</t>
   </si>
   <si>
+    <t>tylerh842</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r428464080-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1300,6 +1513,9 @@
     <t>Check in with Ignacio (late shift guy with a great beard) was wonderful! 2nd stay at this Super 8. The room was clean, the price was great. I will stay again for sure!</t>
   </si>
   <si>
+    <t>Jordan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r426788701-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1315,6 +1531,9 @@
     <t>Me and my friends went to visit LA last month and happened to stay in the motel at Pasadena. The location was pretty calm and the hospitality is overwhelming. Also on the other hand, pool area was very romantic.</t>
   </si>
   <si>
+    <t>H2oDog39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r423005403-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1333,6 +1552,9 @@
     <t>Responded October 1, 2016</t>
   </si>
   <si>
+    <t>Ejaaz Ahamed S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r422952366-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1345,6 +1567,9 @@
     <t>Speaking about the motel, the ambience was totally perfect. It all started with a warm welcome from the reception and then heading towards the room. The room was perfectly decorated for the amount which they charged. The view of the motel was perfect near to the mountains. Calm and pleasant environment added an edge when compared to the other motels in Pasadena. The morning continental breakfast was very good. Out and out it was a fantastic experience for us to stay in Pasadena.</t>
   </si>
   <si>
+    <t>genji_339</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r422856529-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1360,6 +1585,9 @@
     <t>Wasn't as advertised. The room O had was filthy and outdated. Cigarette burns on sheets in a Non-Smoking room. Plantation Shutters are so cheap looking I felt there was no privacy--didn't feel secure (they do not completely cover the window). I paid $136 and for that price, I could've found a much better place to stay. I didn't even feel comfortable enough to shower. Never again.More</t>
   </si>
   <si>
+    <t>Elle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r418252134-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1384,6 +1612,9 @@
     <t>I got in late at night.  I had both of my dogs with me and usually there is a fee but I was surprised when the front desk clerk informed me it would be $40 per pet.  Then I was told because I had pets I was to be in smoking room.  I have asthma and smoke exacerbates this condition and it took a while but finally the desk clerk allowed me to be in a smoke free room.  The bed was fairly comfortable but I was once again disappointed to find the continental breakfast left something to be desired.  The entire set up was just generally sad and the coffee was terrible.  I have stayed in Super 8's all over the US and this was by far my least desired experience.  The pictures showed it had be re-done and aesthetically it was but when it came down to it, it was a motel 6 with over inflated prices.  I will not be returning to this particular Super 8.More</t>
   </si>
   <si>
+    <t>Yvette P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r415855820-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1402,6 +1633,9 @@
     <t>This hotel is in a shady neighborhood. There are a few homeless people within area along with drug incidents happening in and around the hotel while we were there.  It has been remodeled and has new carpet, drapes and furniture. However, the beds are super uncomfortable. They are hard as can be. The bathroom was not done over either. The tubs and paint on the walls are worn, as is the shower curtains. (torn on both sides). The towels are large hand towels. Bad! The pool was nice and clean. The property also gives a continental breakfast. Coffee, juice (cereal, sweet rolls, white bread, apples, waffles and yogurt). Stay at the other choice hotels along Colorado Blvd.More</t>
   </si>
   <si>
+    <t>Charles D M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r415546270-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1411,6 +1645,9 @@
     <t>09/06/2016</t>
   </si>
   <si>
+    <t>Jolene B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r402065590-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1429,6 +1666,9 @@
     <t>Spent two nights the last week in July and was pleasantly surprised.  It was the only hotel in the Pasadena area that was available in my budget.  Reception looked newly renovated; clean and modern.  Check in was easy.Room:- Basic, but clean. I know because after reading some of the reviews, I admit I took a washcloth and started to wipe down the surfaces and not the slightest bit of dirt or dust!   -Microwave and fridge which was great.  -Big TV-Decor was an eclectic mix of 80's carpeting and new oversized chair with modern pattern which matched the bedsheets, but I liked it.  -Plenty of parking and it was free.-Didn't use the pool facilities, but were clean and well maintained.In summary, clean comfortable room at a really great price given other choices in the area.  LA is expensive, so either adjust your expectations or increase your budget by several hundred $'s a night plus $25 a day to park!  Only negative was the internet- was patchy as mentioned in other reviews- and really should be sorted out by corporate.More</t>
   </si>
   <si>
+    <t>Steve C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r401498692-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1444,6 +1684,9 @@
     <t>I'd booked this as there were few options for available hotels on short notice. We had to drive a bit for this place, but I also knew that when I booked it. The was way above what I expected for a two star property. The rooms were nice and clean, it was quiet, and for just a place to sleep that night it went above the bar. I would recommend it to anyone.</t>
   </si>
   <si>
+    <t>57irmaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r397501717-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1492,6 +1735,9 @@
     <t>Responded July 22, 2016</t>
   </si>
   <si>
+    <t>134desireeg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r391771298-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1507,6 +1753,9 @@
     <t>Great parking , clean rooms &amp; It was very quiet.  The property was clean I'll definitely be back thx guys</t>
   </si>
   <si>
+    <t>PhillyGramma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r390802334-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1522,6 +1771,9 @@
     <t xml:space="preserve">Nice property; room was comfortable; breakfast is a simple continental with not much variety; internet wi-fi needs to be a better, consistent connection. Shower curtain could have used an updated new one. </t>
   </si>
   <si>
+    <t>ermisj2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r390119020-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1531,6 +1783,9 @@
     <t>07/07/2016</t>
   </si>
   <si>
+    <t>kohair13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r389594323-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1555,6 +1810,9 @@
     <t>We stayed at this motel for the 2 weeks we were in Pasadena, and found it unsatisfactory. The staff was friendly and welcoming, but the rooms were a completely different story. Upon our arrival we found the room to be very dusty and the sheets were stained and had holes through them. We ended up cleaning the room ourselves and disinfected it due to the lack of cleanliness.There was a 2 inch gap between the door and door frame, enough that you could look through. The pictures posted online are very misleading and look nothing like the rooms or bathrooms at all (at least ours did not). The pool was dirty, where it had cigarettes and clumps of hair floating in it. Lastly the wifi was poor, and would only allow us to connect early in the morning or late each evening. Looking for another hotel/motel for our next stay.More</t>
   </si>
   <si>
+    <t>Carrollton_TXMaryW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r384826750-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1570,6 +1828,9 @@
     <t xml:space="preserve">Loved everything about this motel. Great room and the best Super 8 we have ever stayed in. Only disapointment was they would not give AARP discount and that would have really made a difference since we paid for 7 nights. </t>
   </si>
   <si>
+    <t>Emma M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r384008967-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
   </si>
   <si>
@@ -1583,6 +1844,9 @@
   </si>
   <si>
     <t xml:space="preserve">Visited Pasadena for the Vegan food and beer festival. Friendly service, very clean, nice pool and reasonably priced. Our reservation at another hotel did not work out. Raj was very accommodating at the last minute. We would stay here again. </t>
+  </si>
+  <si>
+    <t>josephgC2091BP</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32859-d79224-r382889081-Super_8_by_Wyndham_Pasadena_La_Area-Pasadena_California.html</t>
@@ -2102,43 +2366,47 @@
       <c r="A2" t="n">
         <v>10384</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2162,48 +2430,52 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10384</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2227,50 +2499,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10384</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2294,50 +2570,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10384</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2361,50 +2641,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10384</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2418,50 +2702,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10384</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2485,35 +2773,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10384</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2521,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2545,42 +2837,43 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10384</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -2597,41 +2890,45 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10384</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2639,10 +2936,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2663,51 +2960,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10384</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2721,50 +3019,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10384</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2786,56 +3088,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10384</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2857,41 +3163,45 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10384</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2899,10 +3209,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2923,51 +3233,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10384</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2991,50 +3302,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10384</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3054,35 +3369,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10384</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3090,10 +3409,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3106,51 +3425,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10384</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3174,50 +3494,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10384</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3239,56 +3563,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10384</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3310,56 +3638,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10384</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3381,56 +3713,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10384</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3454,50 +3790,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10384</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3521,35 +3861,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10384</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3557,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3581,49 +3925,50 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10384</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3645,56 +3990,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10384</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3718,35 +4067,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10384</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3754,10 +4107,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3778,51 +4131,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10384</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3842,50 +4196,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10384</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>202</v>
-      </c>
-      <c r="J29" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" t="s">
-        <v>204</v>
-      </c>
-      <c r="L29" t="s">
-        <v>205</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>179</v>
-      </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3899,50 +4257,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10384</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3960,41 +4322,45 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="X30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10384</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4002,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4026,51 +4392,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10384</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="J32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4088,50 +4455,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10384</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>256</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4151,50 +4522,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10384</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4216,56 +4591,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="Y34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10384</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4289,50 +4668,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10384</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4354,56 +4737,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10384</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4427,48 +4814,52 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10384</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>290</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4490,54 +4881,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="X38" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="Y38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10384</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4559,56 +4954,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="Y39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10384</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4630,56 +5029,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="X40" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="Y40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10384</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4703,50 +5106,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10384</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="J42" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4770,48 +5177,52 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10384</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="J43" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4833,56 +5244,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="X43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="Y43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10384</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4906,35 +5321,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10384</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>329</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="J45" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4942,10 +5361,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4966,36 +5385,37 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10384</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>333</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="J46" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5003,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5027,36 +5447,37 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10384</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>336</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -5064,10 +5485,10 @@
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5088,51 +5509,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10384</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>341</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="J48" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5146,56 +5568,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="X48" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="Y48" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10384</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="J49" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5209,50 +5635,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10384</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>357</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5276,35 +5706,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10384</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>363</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="J51" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5312,10 +5746,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5336,51 +5770,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10384</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="J52" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5402,56 +5837,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="X52" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="Y52" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10384</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>375</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="J53" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="K53" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5469,35 +5908,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10384</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="J54" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5505,10 +5948,10 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5529,36 +5972,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10384</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>386</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="J55" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5566,10 +6010,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5590,36 +6034,37 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10384</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>391</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="J56" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5627,10 +6072,10 @@
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5651,51 +6096,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10384</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="J57" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="K57" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5713,56 +6159,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="X57" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10384</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>404</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="J58" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="L58" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5776,50 +6226,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10384</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>410</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="J59" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="K59" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5835,35 +6289,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10384</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>417</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="J60" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5871,10 +6329,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5895,51 +6353,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10384</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>421</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="J61" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="K61" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="L61" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="O61" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5961,56 +6420,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="X61" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="Y61" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10384</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>430</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="J62" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="K62" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="L62" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6030,35 +6493,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10384</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>438</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6066,10 +6533,10 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6090,42 +6557,43 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10384</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>442</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="J64" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="K64" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6144,35 +6612,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10384</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>448</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="J65" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6180,10 +6652,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6204,51 +6676,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10384</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>452</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="J66" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="K66" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="O66" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6270,56 +6743,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="X66" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="Y66" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10384</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>462</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="J67" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="O67" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6333,50 +6810,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10384</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>468</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="J68" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="K68" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="O68" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6396,35 +6877,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10384</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>475</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="J69" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6432,10 +6917,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O69" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6456,51 +6941,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10384</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>480</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="J70" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="K70" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="L70" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O70" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6518,48 +7004,52 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10384</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>486</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="J71" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -6581,56 +7071,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="X71" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="Y71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10384</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>492</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="J72" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
       <c r="K72" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="L72" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6654,50 +7148,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10384</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>497</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>498</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>427</v>
+        <v>499</v>
       </c>
       <c r="J73" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="K73" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="L73" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="O73" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -6717,48 +7215,52 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10384</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>503</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="J74" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6774,56 +7276,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="X74" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="Y74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10384</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>510</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="J75" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="K75" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6843,50 +7349,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10384</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>515</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="J76" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="K76" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="L76" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="O76" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -6908,56 +7418,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="X76" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="Y76" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10384</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>521</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="J77" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="K77" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="O77" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -6979,56 +7493,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="X77" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="Y77" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10384</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>530</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="J78" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="K78" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="L78" t="s">
-        <v>458</v>
+        <v>535</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7046,35 +7564,39 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10384</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>537</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="J79" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7082,10 +7604,10 @@
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7106,51 +7628,52 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10384</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>541</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="J80" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s">
-        <v>466</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O80" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7170,50 +7693,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10384</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>548</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="J81" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7233,48 +7760,52 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10384</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>554</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="J82" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7296,56 +7827,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="X82" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="Y82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10384</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>350</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>479</v>
+        <v>560</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>480</v>
+        <v>561</v>
       </c>
       <c r="J83" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="K83" t="s">
-        <v>482</v>
+        <v>563</v>
       </c>
       <c r="L83" t="s">
-        <v>483</v>
+        <v>564</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O83" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7359,48 +7894,52 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>483</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10384</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>448</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>485</v>
+        <v>566</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="J84" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7422,56 +7961,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>488</v>
+        <v>569</v>
       </c>
       <c r="X84" t="s">
-        <v>489</v>
+        <v>570</v>
       </c>
       <c r="Y84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10384</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>571</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="J85" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="K85" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="L85" t="s">
-        <v>494</v>
+        <v>576</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O85" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7495,50 +8038,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>494</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10384</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>577</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="J86" t="s">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="K86" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="L86" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="O86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7562,35 +8109,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10384</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>583</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="J87" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7598,10 +8149,10 @@
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O87" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7622,51 +8173,52 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10384</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>587</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>503</v>
+        <v>588</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="J88" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="K88" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="L88" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -7682,56 +8234,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>508</v>
+        <v>593</v>
       </c>
       <c r="X88" t="s">
-        <v>509</v>
+        <v>594</v>
       </c>
       <c r="Y88" t="s">
-        <v>510</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10384</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>596</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="J89" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="K89" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="L89" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7755,50 +8311,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10384</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>602</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>516</v>
+        <v>603</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="J90" t="s">
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="K90" t="s">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="L90" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O90" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -7812,50 +8372,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>520</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10384</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>608</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>521</v>
+        <v>609</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="J91" t="s">
-        <v>523</v>
+        <v>611</v>
       </c>
       <c r="K91" t="s">
-        <v>524</v>
+        <v>612</v>
       </c>
       <c r="L91" t="s">
-        <v>525</v>
+        <v>613</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="O91" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -7877,7 +8441,7 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>525</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
